--- a/test/exp.xlsx
+++ b/test/exp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,14 @@
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t (reserved 50%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,38 +818,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1103,6 +1080,318 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$44:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D272-47C7-944E-0CBE6F87DBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1061026751"/>
+        <c:axId val="1061027583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1061026751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061027583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1061027583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061026751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1223,6 +1512,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2256,6 +2585,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2858,6 +3703,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3129,10 +4004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3361,6 +4236,94 @@
       </c>
       <c r="B34">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/test/exp.xlsx
+++ b/test/exp.xlsx
@@ -4006,8 +4006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/test/exp.xlsx
+++ b/test/exp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACE154-2AC7-434F-BD6D-994EFADA3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,22 +61,31 @@
     <t>t (reserved 50%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0.52-0.54</t>
+  </si>
+  <si>
+    <t>CPU quato</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -105,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -295,7 +305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -321,7 +330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -359,7 +368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="834899583"/>
@@ -404,7 +413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -430,7 +438,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -468,7 +476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="834897087"/>
@@ -509,7 +517,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -523,7 +531,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -704,7 +712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1421374256"/>
@@ -752,7 +760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1421375504"/>
@@ -793,7 +801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -807,7 +815,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -966,7 +974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416143024"/>
@@ -1028,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416143856"/>
@@ -1069,7 +1077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1083,7 +1091,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1278,7 +1286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1061027583"/>
@@ -1340,7 +1348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1061026751"/>
@@ -1381,7 +1389,368 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$59:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$59:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADEB-4D33-8C65-1AB2C8AC79B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1331030895"/>
+        <c:axId val="1331011343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1331030895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331011343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1331011343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331030895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1552,6 +1921,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3101,6 +3510,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3633,7 +4558,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3663,7 +4594,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3693,7 +4630,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3723,7 +4666,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3733,6 +4682,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10124B3C-4F82-4F1B-95E2-6EEEFA913D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4003,16 +4988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4020,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -4028,7 +5013,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -4036,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4044,7 +5029,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4052,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4060,7 +5045,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4068,7 +5053,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4076,7 +5061,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4084,7 +5069,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4092,7 +5077,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4100,12 +5085,12 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +5098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -4121,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>900</v>
       </c>
@@ -4129,7 +5114,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>800</v>
       </c>
@@ -4137,7 +5122,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>700</v>
       </c>
@@ -4145,7 +5130,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>600</v>
       </c>
@@ -4153,7 +5138,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>500</v>
       </c>
@@ -4161,7 +5146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>400</v>
       </c>
@@ -4169,7 +5154,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>300</v>
       </c>
@@ -4177,7 +5162,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>200</v>
       </c>
@@ -4185,7 +5170,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -4193,12 +5178,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4206,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>100</v>
       </c>
@@ -4214,7 +5199,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>200</v>
       </c>
@@ -4222,7 +5207,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>300</v>
       </c>
@@ -4230,7 +5215,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -4238,7 +5223,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4246,7 +5231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4254,7 +5239,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4262,7 +5247,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>20</v>
       </c>
@@ -4270,7 +5255,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>30</v>
       </c>
@@ -4278,7 +5263,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>40</v>
       </c>
@@ -4286,7 +5271,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -4294,7 +5279,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>60</v>
       </c>
@@ -4302,7 +5287,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>70</v>
       </c>
@@ -4310,7 +5295,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>90</v>
       </c>
@@ -4318,12 +5303,132 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>100</v>
       </c>
       <c r="B53">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>750000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>500000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>100000</v>
+      </c>
+      <c r="B59">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>90000</v>
+      </c>
+      <c r="B60">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>85000</v>
+      </c>
+      <c r="B61">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>80000</v>
+      </c>
+      <c r="B62">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>70000</v>
+      </c>
+      <c r="B63">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>60000</v>
+      </c>
+      <c r="B64">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>50000</v>
+      </c>
+      <c r="B65">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>40000</v>
+      </c>
+      <c r="B66">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>30000</v>
+      </c>
+      <c r="B67">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>20000</v>
+      </c>
+      <c r="B68">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>14300</v>
+      </c>
+      <c r="B69">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>10000</v>
+      </c>
+      <c r="B70">
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
